--- a/test-files/graph-tests/different-sized-networks/52-genes-0-edges.xlsx
+++ b/test-files/graph-tests/different-sized-networks/52-genes-0-edges.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="365">
   <si>
     <t>FLO9</t>
   </si>
@@ -1115,159 +1115,6 @@
   </si>
   <si>
     <t>Zap1</t>
-  </si>
-  <si>
-    <t>ABF1</t>
-  </si>
-  <si>
-    <t>ACA1</t>
-  </si>
-  <si>
-    <t>ACE2</t>
-  </si>
-  <si>
-    <t>ADA2</t>
-  </si>
-  <si>
-    <t>ADR1</t>
-  </si>
-  <si>
-    <t>AFT1</t>
-  </si>
-  <si>
-    <t>AFT2</t>
-  </si>
-  <si>
-    <t>ARG80</t>
-  </si>
-  <si>
-    <t>ARG81</t>
-  </si>
-  <si>
-    <t>ARG82</t>
-  </si>
-  <si>
-    <t>ARO80</t>
-  </si>
-  <si>
-    <t>ARR1</t>
-  </si>
-  <si>
-    <t>ASF1</t>
-  </si>
-  <si>
-    <t>ASG1</t>
-  </si>
-  <si>
-    <t>ASH1</t>
-  </si>
-  <si>
-    <t>ASK10</t>
-  </si>
-  <si>
-    <t>AZF1</t>
-  </si>
-  <si>
-    <t>BAS1</t>
-  </si>
-  <si>
-    <t>BDF2</t>
-  </si>
-  <si>
-    <t>BYE1</t>
-  </si>
-  <si>
-    <t>CAC2</t>
-  </si>
-  <si>
-    <t>CAD1</t>
-  </si>
-  <si>
-    <t>CAF4</t>
-  </si>
-  <si>
-    <t>CAT8</t>
-  </si>
-  <si>
-    <t>CBF1</t>
-  </si>
-  <si>
-    <t>CDC73</t>
-  </si>
-  <si>
-    <t>CHA4</t>
-  </si>
-  <si>
-    <t>CIN5</t>
-  </si>
-  <si>
-    <t>CRZ1</t>
-  </si>
-  <si>
-    <t>CSE2</t>
-  </si>
-  <si>
-    <t>CST6</t>
-  </si>
-  <si>
-    <t>CUP2</t>
-  </si>
-  <si>
-    <t>CUP9</t>
-  </si>
-  <si>
-    <t>DAL80</t>
-  </si>
-  <si>
-    <t>DAL81</t>
-  </si>
-  <si>
-    <t>DAL82</t>
-  </si>
-  <si>
-    <t>DAT1</t>
-  </si>
-  <si>
-    <t>DIG1</t>
-  </si>
-  <si>
-    <t>DIG2</t>
-  </si>
-  <si>
-    <t>DOT5</t>
-  </si>
-  <si>
-    <t>DOT6</t>
-  </si>
-  <si>
-    <t>ECM22</t>
-  </si>
-  <si>
-    <t>EDS1</t>
-  </si>
-  <si>
-    <t>ELP6</t>
-  </si>
-  <si>
-    <t>ERT1</t>
-  </si>
-  <si>
-    <t>ESA1</t>
-  </si>
-  <si>
-    <t>ESC2</t>
-  </si>
-  <si>
-    <t>FHL1</t>
-  </si>
-  <si>
-    <t>FKH1</t>
-  </si>
-  <si>
-    <t>FKH2</t>
-  </si>
-  <si>
-    <t>FLO11</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1757,12 +1604,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1793,6 +1642,7 @@
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1800,6 +1650,7 @@
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2110,7 +1961,7 @@
   <dimension ref="A1:BA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1:BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2120,160 +1971,160 @@
         <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>373</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>374</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>376</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>381</v>
+        <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
-        <v>383</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
-        <v>384</v>
+        <v>8</v>
       </c>
       <c r="V1" t="s">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="W1" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="X1" t="s">
-        <v>387</v>
+        <v>51</v>
       </c>
       <c r="Y1" t="s">
-        <v>388</v>
+        <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="AA1" t="s">
-        <v>390</v>
+        <v>32</v>
       </c>
       <c r="AB1" t="s">
-        <v>391</v>
+        <v>3</v>
       </c>
       <c r="AC1" t="s">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="AD1" t="s">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="AE1" t="s">
-        <v>394</v>
+        <v>50</v>
       </c>
       <c r="AF1" t="s">
-        <v>395</v>
+        <v>36</v>
       </c>
       <c r="AG1" t="s">
-        <v>396</v>
+        <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="AI1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AJ1" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="AK1" t="s">
-        <v>399</v>
+        <v>30</v>
       </c>
       <c r="AL1" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AM1" t="s">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AN1" t="s">
-        <v>402</v>
+        <v>49</v>
       </c>
       <c r="AO1" t="s">
-        <v>403</v>
+        <v>43</v>
       </c>
       <c r="AP1" t="s">
-        <v>404</v>
+        <v>48</v>
       </c>
       <c r="AQ1" t="s">
-        <v>405</v>
+        <v>9</v>
       </c>
       <c r="AR1" t="s">
-        <v>406</v>
+        <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>407</v>
+        <v>38</v>
       </c>
       <c r="AT1" t="s">
-        <v>408</v>
+        <v>46</v>
       </c>
       <c r="AU1" t="s">
-        <v>409</v>
+        <v>19</v>
       </c>
       <c r="AV1" t="s">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="AW1" t="s">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="AX1" t="s">
-        <v>412</v>
+        <v>13</v>
       </c>
       <c r="AY1" t="s">
-        <v>413</v>
+        <v>24</v>
       </c>
       <c r="AZ1" t="s">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="BA1" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:53">
